--- a/scene_classification/results/tables/performance/per_class_ucmerced.xlsx
+++ b/scene_classification/results/tables/performance/per_class_ucmerced.xlsx
@@ -514,7 +514,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>resnet50</t>
+          <t>convnext_tiny</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20</v>
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20</v>
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20</v>
@@ -766,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>20</v>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>20</v>
@@ -886,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>20</v>
@@ -938,7 +938,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>resnet101</t>
+          <t>densenet121</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -970,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>20</v>
@@ -1030,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>20</v>
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>20</v>
@@ -1087,13 +1087,13 @@
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>20</v>
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>20</v>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>20</v>
@@ -1230,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>20</v>
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>20</v>
@@ -1310,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>20</v>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>20</v>
@@ -1362,7 +1362,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>densenet121</t>
+          <t>efficientnet_b0</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>20</v>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>20</v>
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>20</v>
@@ -1534,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>20</v>
@@ -1611,13 +1611,13 @@
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>20</v>
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="F58" s="3" t="n">
         <v>20</v>
@@ -1786,7 +1786,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>efficientnet_b0</t>
+          <t>efficientnet_b3</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -1875,13 +1875,13 @@
         </is>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F69" s="3" t="n">
         <v>20</v>
@@ -1915,13 +1915,13 @@
         </is>
       </c>
       <c r="C71" s="3" t="n">
-        <v>0.95</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>0.95</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F71" s="3" t="n">
         <v>20</v>
@@ -2035,13 +2035,13 @@
         </is>
       </c>
       <c r="C77" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F77" s="3" t="n">
         <v>20</v>
@@ -2158,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F83" s="3" t="n">
         <v>20</v>
@@ -2210,7 +2210,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>efficientnet_b3</t>
+          <t>resnet101</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -2242,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F87" s="3" t="n">
         <v>20</v>
@@ -2342,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F92" s="3" t="n">
         <v>20</v>
@@ -2359,13 +2359,13 @@
         </is>
       </c>
       <c r="C93" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D93" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="F93" s="3" t="n">
         <v>20</v>
@@ -2402,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F95" s="3" t="n">
         <v>20</v>
@@ -2459,13 +2459,13 @@
         </is>
       </c>
       <c r="C98" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D98" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F98" s="3" t="n">
         <v>20</v>
@@ -2539,13 +2539,13 @@
         </is>
       </c>
       <c r="C102" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D102" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F102" s="3" t="n">
         <v>20</v>
@@ -2559,13 +2559,13 @@
         </is>
       </c>
       <c r="C103" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D103" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F103" s="3" t="n">
         <v>20</v>
@@ -2582,10 +2582,10 @@
         <v>1</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="F104" s="3" t="n">
         <v>20</v>
@@ -2634,7 +2634,7 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>vit_b_16</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -2683,13 +2683,13 @@
         </is>
       </c>
       <c r="C109" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D109" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F109" s="3" t="n">
         <v>20</v>
@@ -2763,13 +2763,13 @@
         </is>
       </c>
       <c r="C113" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F113" s="3" t="n">
         <v>20</v>
@@ -2826,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F116" s="3" t="n">
         <v>20</v>
@@ -2883,13 +2883,13 @@
         </is>
       </c>
       <c r="C119" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F119" s="3" t="n">
         <v>20</v>
@@ -3006,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="F125" s="3" t="n">
         <v>20</v>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="C127" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D127" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="3" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="F127" s="3" t="n">
         <v>20</v>
@@ -3190,10 +3190,10 @@
         <v>1</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E134" s="3" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="F134" s="3" t="n">
         <v>20</v>
@@ -3230,10 +3230,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E136" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F136" s="3" t="n">
         <v>20</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="C140" s="3" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="D140" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="F140" s="3" t="n">
         <v>20</v>
@@ -3347,13 +3347,13 @@
         </is>
       </c>
       <c r="C142" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D142" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F142" s="3" t="n">
         <v>20</v>
@@ -3427,13 +3427,13 @@
         </is>
       </c>
       <c r="C146" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D146" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F146" s="3" t="n">
         <v>20</v>
@@ -3450,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="F147" s="3" t="n">
         <v>20</v>
@@ -3467,13 +3467,13 @@
         </is>
       </c>
       <c r="C148" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D148" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="F148" s="3" t="n">
         <v>20</v>
@@ -3482,7 +3482,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>convnext_tiny</t>
+          <t>vit_b_16</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -3571,13 +3571,13 @@
         </is>
       </c>
       <c r="C153" s="3" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="F153" s="3" t="n">
         <v>20</v>
@@ -3611,13 +3611,13 @@
         </is>
       </c>
       <c r="C155" s="3" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="F155" s="3" t="n">
         <v>20</v>
@@ -3711,13 +3711,13 @@
         </is>
       </c>
       <c r="C160" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D160" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F160" s="3" t="n">
         <v>20</v>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C161" s="3" t="n">
-        <v>1</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E161" s="3" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="F161" s="3" t="n">
         <v>20</v>
@@ -3774,10 +3774,10 @@
         <v>1</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F163" s="3" t="n">
         <v>20</v>
@@ -3854,10 +3854,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F167" s="3" t="n">
         <v>20</v>
@@ -3871,13 +3871,13 @@
         </is>
       </c>
       <c r="C168" s="3" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D168" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F168" s="3" t="n">
         <v>20</v>
@@ -3891,13 +3891,13 @@
         </is>
       </c>
       <c r="C169" s="3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D169" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F169" s="3" t="n">
         <v>20</v>
